--- a/data-export/WD_identified_person_matches.xlsx
+++ b/data-export/WD_identified_person_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/data-export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9B7F12-0ACA-184E-BFB1-74C7DC8454E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64C2616-4248-EC41-9985-AE7387FBE5AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11640" yWindow="500" windowWidth="14200" windowHeight="15760" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="156">
   <si>
     <t>84000 ID</t>
   </si>
@@ -366,24 +366,15 @@
     <t>'zhu chen gyi lo ts+tsha ba ban de ye shes sde', 'sna nam btsun pa ye shes sde/'</t>
   </si>
   <si>
-    <t xml:space="preserve">P3214 </t>
-  </si>
-  <si>
     <t>'dA na shI la', 'paN chen dA na shI la/', 'dānaśīla'</t>
   </si>
   <si>
-    <t xml:space="preserve">P8213 </t>
-  </si>
-  <si>
     <t>'rgya gar gyi mkhan po bid+yA ka ra sing ha', 'slob dpon bIr+ya sing+ha pra b+ha/', 'vīryakarasiṁha,vīryasiṁha'</t>
   </si>
   <si>
     <t>'lots+tsha ba ban de ye shes snying po', 'lo tsA ba ye shes snying po/', 'Jñānagarbha'</t>
   </si>
   <si>
-    <t xml:space="preserve">P8205 </t>
-  </si>
-  <si>
     <t>'zhu chen gyi lots+tsha ba ban de ye shes sde', 'sna nam btsun pa ye shes sde/'</t>
   </si>
   <si>
@@ -399,9 +390,6 @@
     <t>'zhu chen gyi lo tsA ba _ban de ye shes sde', 'sna nam btsun pa ye shes sde/'</t>
   </si>
   <si>
-    <t xml:space="preserve">P1KG8854 </t>
-  </si>
-  <si>
     <t>'rgya gar gyi mkhan po shI len dra bo d+hi', 'shI len+dra bo d+hi/', 'śīlendrabodhi'</t>
   </si>
   <si>
@@ -435,9 +423,6 @@
     <t xml:space="preserve"> 'lo ts+tsha ba ban de chos nyid tshul khrims', 'zhu chen gyi lo tsA ba dharma tA shI la/', 'Dharmatāśīla'</t>
   </si>
   <si>
-    <t xml:space="preserve">P8222 </t>
-  </si>
-  <si>
     <t>'dz+nyA na sid+d+hi', 'dz+nyA na sid+dhi/', 'jñānasiddhi'</t>
   </si>
   <si>
@@ -447,9 +432,6 @@
     <t>lo ts+tsha ba ban de rin chen 'tsho, "lo tsA ba rin chen 'tsho/"</t>
   </si>
   <si>
-    <t xml:space="preserve">P4CZ16780 </t>
-  </si>
-  <si>
     <t>'rgya gar gyi mkhan po many+dzu shrI gar+b+ha', 'mkhan po many+dzu shrI gar+b+ha/', 'majuśrīgarbha'</t>
   </si>
   <si>
@@ -462,9 +444,6 @@
     <t>'zhu chen gyi lots+tsha ba dge slong shes rab legs pa', 'shes rab legs pa/'</t>
   </si>
   <si>
-    <t xml:space="preserve">P3285 </t>
-  </si>
-  <si>
     <t>'lots+tsha ba dge slong shAkya ye shes', 'brog mi lo tsA ba shAkya ye shes/'</t>
   </si>
   <si>
@@ -480,9 +459,6 @@
     <t>'lo ts+tsha ba grags pa rgyal mtshan', 'yar lung lo tsA ba grags pa rgyal mtshan/'</t>
   </si>
   <si>
-    <t xml:space="preserve">P3709 </t>
-  </si>
-  <si>
     <t>bod kyi lo ts+tsha ba 'phags pa shes rab, "zangs dkar lo tsA ba 'phags pa shes rab/"</t>
   </si>
   <si>
@@ -514,6 +490,18 @@
   </si>
   <si>
     <t>https://lod.dila.edu.tw/resource.php?id=A000089</t>
+  </si>
+  <si>
+    <t>P3214</t>
+  </si>
+  <si>
+    <t>P4CZ16780</t>
+  </si>
+  <si>
+    <t>P3285</t>
+  </si>
+  <si>
+    <t>P3709</t>
   </si>
 </sst>
 </file>
@@ -885,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8AC6A-C797-F64E-A13A-B195FE9524EC}">
   <dimension ref="B1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -912,7 +900,7 @@
         <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1070,10 +1058,10 @@
         <v>78</v>
       </c>
       <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
         <v>110</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
@@ -1087,10 +1075,10 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
@@ -1107,7 +1095,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
@@ -1121,10 +1109,10 @@
         <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -1138,10 +1126,10 @@
         <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
@@ -1158,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -1175,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -1189,10 +1177,10 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1220,10 +1208,10 @@
         <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -1240,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -1254,10 +1242,10 @@
         <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -1288,10 +1276,10 @@
         <v>20</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1305,7 +1293,7 @@
         <v>89</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -1322,7 +1310,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -1339,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -1353,10 +1341,10 @@
         <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -1373,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -1390,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -1404,10 +1392,10 @@
         <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1421,7 +1409,7 @@
         <v>56</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>57</v>
@@ -1441,7 +1429,7 @@
         <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -1455,10 +1443,10 @@
         <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -1472,10 +1460,10 @@
         <v>94</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -1489,10 +1477,10 @@
         <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -1506,10 +1494,10 @@
         <v>65</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
@@ -1523,10 +1511,10 @@
         <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -1540,10 +1528,10 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -1557,10 +1545,10 @@
         <v>96</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -1574,10 +1562,10 @@
         <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -1594,7 +1582,7 @@
         <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -1608,10 +1596,10 @@
         <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data-export/WD_identified_person_matches.xlsx
+++ b/data-export/WD_identified_person_matches.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/data-export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64C2616-4248-EC41-9985-AE7387FBE5AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0C3B92-A138-D54C-9B98-6778797DDC49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="500" windowWidth="14200" windowHeight="15760" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
+    <workbookView xWindow="10100" yWindow="500" windowWidth="16760" windowHeight="15760" activeTab="1" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
   </bookViews>
   <sheets>
     <sheet name="WD_person_matches" sheetId="6" r:id="rId1"/>
+    <sheet name="previously_identified_matches" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="218">
   <si>
     <t>84000 ID</t>
   </si>
@@ -502,6 +503,192 @@
   </si>
   <si>
     <t>P3709</t>
+  </si>
+  <si>
+    <t>eft:sarvajnadeva</t>
+  </si>
+  <si>
+    <t>eft:dharmakara</t>
+  </si>
+  <si>
+    <t>P8249</t>
+  </si>
+  <si>
+    <t>eft:jinamitra-k-</t>
+  </si>
+  <si>
+    <t>eft:klu-i-rgyal-mtshan</t>
+  </si>
+  <si>
+    <t>P8183</t>
+  </si>
+  <si>
+    <t>eft:dzi-na-mi-tra-k-</t>
+  </si>
+  <si>
+    <t>eft:cog-ro-klu-i-rgyal-mtshan</t>
+  </si>
+  <si>
+    <t>eft:ban-de-dpal-gyi-lhun-po</t>
+  </si>
+  <si>
+    <t>eft:ban-de-dpal-brtsegs</t>
+  </si>
+  <si>
+    <t>eft:dpal-byor</t>
+  </si>
+  <si>
+    <t>P4258</t>
+  </si>
+  <si>
+    <t>P8228</t>
+  </si>
+  <si>
+    <t>eft:munivarman</t>
+  </si>
+  <si>
+    <t>P8261</t>
+  </si>
+  <si>
+    <t>eft:prajnavarman</t>
+  </si>
+  <si>
+    <t>eft:dpal-dbyangs</t>
+  </si>
+  <si>
+    <t>P8260</t>
+  </si>
+  <si>
+    <t>eft:ska-ba-dpal-brtsegs</t>
+  </si>
+  <si>
+    <t>eft:buddhaprabha</t>
+  </si>
+  <si>
+    <t>P8268</t>
+  </si>
+  <si>
+    <t>eft:ye-shes-sde</t>
+  </si>
+  <si>
+    <t>eft:dgon-gling-rma</t>
+  </si>
+  <si>
+    <t>P8269</t>
+  </si>
+  <si>
+    <t>eft:dpal-gyi-lhun-po</t>
+  </si>
+  <si>
+    <t>eft:dpal-brtsegs</t>
+  </si>
+  <si>
+    <t>eft:sakyaprabha</t>
+  </si>
+  <si>
+    <t>P4CZ16819</t>
+  </si>
+  <si>
+    <t>eft:ye-shes-snying-po</t>
+  </si>
+  <si>
+    <t>eft:visuddhasimha</t>
+  </si>
+  <si>
+    <t>P8219</t>
+  </si>
+  <si>
+    <t>eft:dge-ba-dpal</t>
+  </si>
+  <si>
+    <t>P4263</t>
+  </si>
+  <si>
+    <t>eft:devacandra</t>
+  </si>
+  <si>
+    <t>P8220</t>
+  </si>
+  <si>
+    <t>eft:kamalagupta</t>
+  </si>
+  <si>
+    <t>P8093</t>
+  </si>
+  <si>
+    <t>eft:rin-chen-bzang-po</t>
+  </si>
+  <si>
+    <t>P753</t>
+  </si>
+  <si>
+    <t>eft:rin-chen-tsho</t>
+  </si>
+  <si>
+    <t>eft:jnanagarbha</t>
+  </si>
+  <si>
+    <t>eft:vijayasila</t>
+  </si>
+  <si>
+    <t>P8267</t>
+  </si>
+  <si>
+    <t>eft:hwa-shang-zab-mo</t>
+  </si>
+  <si>
+    <t>P0TMP080</t>
+  </si>
+  <si>
+    <t>eft:rnam-par-mi-rtog-pa</t>
+  </si>
+  <si>
+    <t>P0TMPT007</t>
+  </si>
+  <si>
+    <t>eft:munivarma</t>
+  </si>
+  <si>
+    <t>eft:ratnaraksita</t>
+  </si>
+  <si>
+    <t>P8265</t>
+  </si>
+  <si>
+    <t>eft:dharmasribhadra</t>
+  </si>
+  <si>
+    <t>P8171</t>
+  </si>
+  <si>
+    <t>eft:gayadhara</t>
+  </si>
+  <si>
+    <t>P8151</t>
+  </si>
+  <si>
+    <t>eft:krsnapandita</t>
+  </si>
+  <si>
+    <t>P2956</t>
+  </si>
+  <si>
+    <t>eft:tshul-khrims-rgyal-ba</t>
+  </si>
+  <si>
+    <t>P3456</t>
+  </si>
+  <si>
+    <t>eft:celu</t>
+  </si>
+  <si>
+    <t>P8206</t>
+  </si>
+  <si>
+    <t>eft:punyasambhava</t>
+  </si>
+  <si>
+    <t>P0TMP104</t>
   </si>
 </sst>
 </file>
@@ -873,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8AC6A-C797-F64E-A13A-B195FE9524EC}">
   <dimension ref="B1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,4 +1792,739 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5D5BB-BF34-2242-A9D4-DED0C01B7A09}">
+  <dimension ref="B1:C90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-export/WD_identified_person_matches.xlsx
+++ b/data-export/WD_identified_person_matches.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/data-export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0C3B92-A138-D54C-9B98-6778797DDC49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3C96B5-51B2-AF45-9A35-F5AAD20D0529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="500" windowWidth="16760" windowHeight="15760" activeTab="1" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
+    <workbookView xWindow="7720" yWindow="500" windowWidth="21080" windowHeight="15760" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
   </bookViews>
   <sheets>
     <sheet name="WD_person_matches" sheetId="6" r:id="rId1"/>
-    <sheet name="previously_identified_matches" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="previously_identified_matches" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="248">
   <si>
     <t>84000 ID</t>
   </si>
@@ -689,19 +690,114 @@
   </si>
   <si>
     <t>P0TMP104</t>
+  </si>
+  <si>
+    <t>Gö Chödrup</t>
+  </si>
+  <si>
+    <t>eft:g-ch-drup</t>
+  </si>
+  <si>
+    <t>wang phab zhwun (wang phan zhun)</t>
+  </si>
+  <si>
+    <t>eft:wang-phab-zhwun-wang-phan-zhun-</t>
+  </si>
+  <si>
+    <t>dge ba'i blo gros</t>
+  </si>
+  <si>
+    <t>eft:dge-ba-i-blo-gros</t>
+  </si>
+  <si>
+    <t>rgya mtsho'i sde</t>
+  </si>
+  <si>
+    <t>eft:rgya-mtsho-i-sde</t>
+  </si>
+  <si>
+    <t>Thönmi Sambhoṭa</t>
+  </si>
+  <si>
+    <t>eft:th-nmi-sambhota</t>
+  </si>
+  <si>
+    <t>Tsultrim Gyaltsen</t>
+  </si>
+  <si>
+    <t>eft:tsultrim-gyaltsen</t>
+  </si>
+  <si>
+    <t>Shang Buchikpa</t>
+  </si>
+  <si>
+    <t>eft:shang-buchikpa</t>
+  </si>
+  <si>
+    <t>Sherap Ö</t>
+  </si>
+  <si>
+    <t>eft:sherap-</t>
+  </si>
+  <si>
+    <t>Paṇḍita Dharmākara</t>
+  </si>
+  <si>
+    <t>eft:pandita-dharmakara</t>
+  </si>
+  <si>
+    <t>Lotsāwa Zangkyong (bzang skyong)</t>
+  </si>
+  <si>
+    <t>eft:lotsawa-zangkyong-bzang-skyong-</t>
+  </si>
+  <si>
+    <t>Nyen Lotsawa Darma Drak</t>
+  </si>
+  <si>
+    <t>eft:nyen-lotsawa-darma-drak</t>
+  </si>
+  <si>
+    <t>Patsap Nyima Drak [?]</t>
+  </si>
+  <si>
+    <t>eft:patsap-nyima-drak-</t>
+  </si>
+  <si>
+    <t>vajrvisramitra</t>
+  </si>
+  <si>
+    <t>eft:vajrvisramitra</t>
+  </si>
+  <si>
+    <t>P8277</t>
+  </si>
+  <si>
+    <t>P8278</t>
+  </si>
+  <si>
+    <t>P8221</t>
+  </si>
+  <si>
+    <t>P8276</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF343434"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="4">
@@ -736,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -744,6 +840,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8AC6A-C797-F64E-A13A-B195FE9524EC}">
-  <dimension ref="B1:G43"/>
+  <dimension ref="B1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1789,17 +1886,291 @@
         <v>148</v>
       </c>
     </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" t="s">
+        <v>241</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28D6F3-67DC-AD4B-A296-C54AE31D8231}">
+  <dimension ref="C12:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5D5BB-BF34-2242-A9D4-DED0C01B7A09}">
   <dimension ref="B1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data-export/WD_identified_person_matches.xlsx
+++ b/data-export/WD_identified_person_matches.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/data-export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3C96B5-51B2-AF45-9A35-F5AAD20D0529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59C723-A7A6-B142-9679-E3A2AF9BBB40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="500" windowWidth="21080" windowHeight="15760" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="17660" windowHeight="15760" activeTab="2" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
   </bookViews>
   <sheets>
     <sheet name="WD_person_matches" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="finding new matches" sheetId="8" r:id="rId2"/>
     <sheet name="previously_identified_matches" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="306">
   <si>
     <t>84000 ID</t>
   </si>
@@ -780,13 +780,187 @@
   </si>
   <si>
     <t>P8276</t>
+  </si>
+  <si>
+    <t>bidyakaraprabha</t>
+  </si>
+  <si>
+    <t>eft:bidyakaraprabha</t>
+  </si>
+  <si>
+    <t>subhasita</t>
+  </si>
+  <si>
+    <t>eft:subhasita</t>
+  </si>
+  <si>
+    <t>rin chen bzag po</t>
+  </si>
+  <si>
+    <t>this is a typo, not a different person</t>
+  </si>
+  <si>
+    <t>'brom rgyal ba'i 'byung gnas</t>
+  </si>
+  <si>
+    <t>eft:rin-chen-bzag-po</t>
+  </si>
+  <si>
+    <t>'brom</t>
+  </si>
+  <si>
+    <t>eft:-brom</t>
+  </si>
+  <si>
+    <t>eft:-brom-rgyal-ba-i-byung-gnas</t>
+  </si>
+  <si>
+    <t>blo ldan shes rab</t>
+  </si>
+  <si>
+    <t>eft:blo-ldan-shes-rab</t>
+  </si>
+  <si>
+    <t>Yeshé De</t>
+  </si>
+  <si>
+    <t>eft:yesh-de</t>
+  </si>
+  <si>
+    <t>eft:lotsawa-band-dharmatasila</t>
+  </si>
+  <si>
+    <t>Lotsawa Bandé Dharmatāśīla</t>
+  </si>
+  <si>
+    <t>Gewai Lodrö</t>
+  </si>
+  <si>
+    <t>eft:gewai-lodr-</t>
+  </si>
+  <si>
+    <t>Devendrarakṣita</t>
+  </si>
+  <si>
+    <t>eft:devendraraksita</t>
+  </si>
+  <si>
+    <t>Kumārarakṣita</t>
+  </si>
+  <si>
+    <t>eft:kumararaksita</t>
+  </si>
+  <si>
+    <t>Gewé Pal</t>
+  </si>
+  <si>
+    <t>eft:gew-pal</t>
+  </si>
+  <si>
+    <t>Bandé Paltsek</t>
+  </si>
+  <si>
+    <t>eft:band-paltsek</t>
+  </si>
+  <si>
+    <t>Rinchen Zangpo</t>
+  </si>
+  <si>
+    <t>eft:rinchen-zangpo</t>
+  </si>
+  <si>
+    <t>Gö Lhetsé</t>
+  </si>
+  <si>
+    <t>eft:g-lhets-</t>
+  </si>
+  <si>
+    <t>Śākya Lodrö</t>
+  </si>
+  <si>
+    <t>eft:sakya-lodr-</t>
+  </si>
+  <si>
+    <t>Géwai Lodrö</t>
+  </si>
+  <si>
+    <t>eft:g-wai-lodr-</t>
+  </si>
+  <si>
+    <t>Tsultrim Gyalwa</t>
+  </si>
+  <si>
+    <t>eft:tsultrim-gyalwa</t>
+  </si>
+  <si>
+    <t>Chökyi Sherab</t>
+  </si>
+  <si>
+    <t>eft:ch-kyi-sherab</t>
+  </si>
+  <si>
+    <t>vairocanaraksita</t>
+  </si>
+  <si>
+    <t>eft:vairocanaraksita</t>
+  </si>
+  <si>
+    <t>P5788</t>
+  </si>
+  <si>
+    <t>P6453</t>
+  </si>
+  <si>
+    <t>P1321</t>
+  </si>
+  <si>
+    <t>P4256</t>
+  </si>
+  <si>
+    <t>P2614</t>
+  </si>
+  <si>
+    <t>many possibilites, including same as above P1321, P4875, P8LS15391</t>
+  </si>
+  <si>
+    <t>P2557</t>
+  </si>
+  <si>
+    <t>P2551</t>
+  </si>
+  <si>
+    <t>assuming this is a typo</t>
+  </si>
+  <si>
+    <t>P8212</t>
+  </si>
+  <si>
+    <t>P8271</t>
+  </si>
+  <si>
+    <t>P8280</t>
+  </si>
+  <si>
+    <t>P3458</t>
+  </si>
+  <si>
+    <t>P8216</t>
+  </si>
+  <si>
+    <t>P1242</t>
+  </si>
+  <si>
+    <t>P3890</t>
+  </si>
+  <si>
+    <t>P4CZ15308</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -798,6 +972,24 @@
       <sz val="13"/>
       <color rgb="FF343434"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF343434"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -832,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -841,6 +1033,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8AC6A-C797-F64E-A13A-B195FE9524EC}">
-  <dimension ref="B1:G56"/>
+  <dimension ref="B1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E77" sqref="D44:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1894,7 +2088,7 @@
         <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -1905,7 +2099,7 @@
         <v>221</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
@@ -1916,43 +2110,43 @@
         <v>223</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>224</v>
       </c>
       <c r="D47" t="s">
         <v>225</v>
       </c>
-      <c r="E47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E47" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>226</v>
       </c>
       <c r="D48" t="s">
         <v>227</v>
       </c>
-      <c r="E48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>228</v>
       </c>
       <c r="D49" t="s">
         <v>229</v>
       </c>
-      <c r="E49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>230</v>
       </c>
@@ -1960,10 +2154,10 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>232</v>
       </c>
@@ -1974,7 +2168,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>234</v>
       </c>
@@ -1982,10 +2176,10 @@
         <v>235</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>236</v>
       </c>
@@ -1993,21 +2187,21 @@
         <v>237</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>238</v>
       </c>
       <c r="D54" t="s">
         <v>239</v>
       </c>
-      <c r="E54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>240</v>
       </c>
@@ -2015,10 +2209,10 @@
         <v>241</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>242</v>
       </c>
@@ -2027,6 +2221,240 @@
       </c>
       <c r="E56" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" t="s">
+        <v>268</v>
+      </c>
+      <c r="E66" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E67" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" t="s">
+        <v>272</v>
+      </c>
+      <c r="E68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" t="s">
+        <v>274</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" t="s">
+        <v>276</v>
+      </c>
+      <c r="E70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>279</v>
+      </c>
+      <c r="D72" t="s">
+        <v>280</v>
+      </c>
+      <c r="E72" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" t="s">
+        <v>282</v>
+      </c>
+      <c r="E73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>283</v>
+      </c>
+      <c r="D74" t="s">
+        <v>284</v>
+      </c>
+      <c r="E74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" t="s">
+        <v>286</v>
+      </c>
+      <c r="E76" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>287</v>
+      </c>
+      <c r="D77" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2036,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28D6F3-67DC-AD4B-A296-C54AE31D8231}">
-  <dimension ref="C12:E24"/>
+  <dimension ref="C12:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E45" sqref="C12:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2088,89 +2516,354 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>226</v>
       </c>
       <c r="D16" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>228</v>
       </c>
       <c r="D17" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>230</v>
       </c>
       <c r="D18" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>232</v>
       </c>
       <c r="D19" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>234</v>
       </c>
       <c r="D20" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>236</v>
       </c>
       <c r="D21" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>238</v>
       </c>
       <c r="D22" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>240</v>
       </c>
       <c r="D23" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>242</v>
       </c>
       <c r="D24" t="s">
         <v>243</v>
       </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>265</v>
+      </c>
+      <c r="D33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5D5BB-BF34-2242-A9D4-DED0C01B7A09}">
-  <dimension ref="B1:C90"/>
+  <dimension ref="B1:C124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2895,6 +3588,278 @@
         <v>149</v>
       </c>
     </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>243</v>
+      </c>
+      <c r="C103" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>255</v>
+      </c>
+      <c r="C106" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C107" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>260</v>
+      </c>
+      <c r="C109" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>262</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>274</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>276</v>
+      </c>
+      <c r="C117" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>282</v>
+      </c>
+      <c r="C120" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>284</v>
+      </c>
+      <c r="C121" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>286</v>
+      </c>
+      <c r="C123" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>288</v>
+      </c>
+      <c r="C124" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-export/WD_identified_person_matches.xlsx
+++ b/data-export/WD_identified_person_matches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/data-export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59C723-A7A6-B142-9679-E3A2AF9BBB40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58AEDA9-8A07-3148-A4CC-2519B9E07B9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="17660" windowHeight="15760" activeTab="2" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
+    <workbookView xWindow="10840" yWindow="500" windowWidth="17660" windowHeight="15760" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
   </bookViews>
   <sheets>
     <sheet name="WD_person_matches" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="305">
   <si>
     <t>84000 ID</t>
   </si>
@@ -795,9 +795,6 @@
   </si>
   <si>
     <t>rin chen bzag po</t>
-  </si>
-  <si>
-    <t>this is a typo, not a different person</t>
   </si>
   <si>
     <t>'brom rgyal ba'i 'byung gnas</t>
@@ -1351,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8AC6A-C797-F64E-A13A-B195FE9524EC}">
   <dimension ref="B1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E77" sqref="D44:E77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2082,10 +2079,10 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" t="s">
         <v>218</v>
-      </c>
-      <c r="D44" t="s">
-        <v>219</v>
       </c>
       <c r="E44" t="s">
         <v>246</v>
@@ -2093,10 +2090,10 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" t="s">
         <v>220</v>
-      </c>
-      <c r="D45" t="s">
-        <v>221</v>
       </c>
       <c r="E45" t="s">
         <v>247</v>
@@ -2104,10 +2101,10 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" t="s">
         <v>222</v>
-      </c>
-      <c r="D46" t="s">
-        <v>223</v>
       </c>
       <c r="E46" t="s">
         <v>245</v>
@@ -2115,10 +2112,10 @@
     </row>
     <row r="47" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" t="s">
         <v>224</v>
-      </c>
-      <c r="D47" t="s">
-        <v>225</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>244</v>
@@ -2126,186 +2123,183 @@
     </row>
     <row r="48" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" t="s">
         <v>226</v>
       </c>
-      <c r="D48" t="s">
-        <v>227</v>
-      </c>
       <c r="E48" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>228</v>
-      </c>
-      <c r="D49" t="s">
-        <v>229</v>
-      </c>
-      <c r="E49" s="9" t="s">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>230</v>
-      </c>
-      <c r="D50" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" t="s">
         <v>232</v>
-      </c>
-      <c r="D51" t="s">
-        <v>233</v>
       </c>
       <c r="E51" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" t="s">
         <v>234</v>
-      </c>
-      <c r="D52" t="s">
-        <v>235</v>
       </c>
       <c r="E52" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" t="s">
         <v>236</v>
       </c>
-      <c r="D53" t="s">
-        <v>237</v>
-      </c>
       <c r="E53" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>238</v>
-      </c>
-      <c r="D54" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
+        <v>241</v>
+      </c>
+      <c r="D55" t="s">
         <v>240</v>
-      </c>
-      <c r="D55" t="s">
-        <v>241</v>
       </c>
       <c r="E55" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" t="s">
         <v>242</v>
-      </c>
-      <c r="D56" t="s">
-        <v>243</v>
       </c>
       <c r="E56" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" t="s">
         <v>248</v>
-      </c>
-      <c r="D57" t="s">
-        <v>249</v>
       </c>
       <c r="E57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" t="s">
         <v>250</v>
       </c>
-      <c r="D58" t="s">
-        <v>251</v>
-      </c>
       <c r="E58" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" t="s">
         <v>252</v>
-      </c>
-      <c r="D59" t="s">
-        <v>255</v>
       </c>
       <c r="E59" t="s">
         <v>194</v>
       </c>
-      <c r="F59" t="s">
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>254</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="E60" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>256</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E61" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>259</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E62" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>261</v>
       </c>
       <c r="D63" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E63" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D64" t="s">
         <v>263</v>
@@ -2319,7 +2313,7 @@
         <v>265</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E65" t="s">
         <v>245</v>
@@ -2330,10 +2324,10 @@
         <v>267</v>
       </c>
       <c r="D66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
@@ -2341,10 +2335,10 @@
         <v>269</v>
       </c>
       <c r="D67" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
@@ -2352,7 +2346,7 @@
         <v>271</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E68" t="s">
         <v>188</v>
@@ -2363,7 +2357,7 @@
         <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E69" t="s">
         <v>6</v>
@@ -2374,7 +2368,7 @@
         <v>275</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E70" t="s">
         <v>194</v>
@@ -2385,10 +2379,10 @@
         <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
@@ -2396,10 +2390,10 @@
         <v>279</v>
       </c>
       <c r="D72" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
@@ -2407,10 +2401,10 @@
         <v>281</v>
       </c>
       <c r="D73" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
@@ -2418,7 +2412,7 @@
         <v>283</v>
       </c>
       <c r="D74" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E74" t="s">
         <v>213</v>
@@ -2426,10 +2420,10 @@
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" t="s">
         <v>240</v>
-      </c>
-      <c r="D75" t="s">
-        <v>241</v>
       </c>
       <c r="E75" t="s">
         <v>145</v>
@@ -2440,10 +2434,10 @@
         <v>285</v>
       </c>
       <c r="D76" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.2">
@@ -2451,10 +2445,10 @@
         <v>287</v>
       </c>
       <c r="D77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28D6F3-67DC-AD4B-A296-C54AE31D8231}">
   <dimension ref="C12:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E45" sqref="C12:E45"/>
     </sheetView>
   </sheetViews>
@@ -2524,7 +2518,7 @@
         <v>227</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="17" x14ac:dyDescent="0.2">
@@ -2535,7 +2529,7 @@
         <v>229</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
@@ -2546,7 +2540,7 @@
         <v>231</v>
       </c>
       <c r="E18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
@@ -2560,7 +2554,7 @@
         <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -2582,7 +2576,7 @@
         <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="17" x14ac:dyDescent="0.2">
@@ -2593,7 +2587,7 @@
         <v>239</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
@@ -2637,7 +2631,7 @@
         <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
@@ -2645,54 +2639,54 @@
         <v>252</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E27" t="s">
         <v>194</v>
       </c>
       <c r="F27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" t="s">
         <v>256</v>
       </c>
-      <c r="D29" t="s">
-        <v>257</v>
-      </c>
       <c r="E29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" t="s">
         <v>259</v>
       </c>
-      <c r="D30" t="s">
-        <v>260</v>
-      </c>
       <c r="E30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" t="s">
         <v>261</v>
-      </c>
-      <c r="D31" t="s">
-        <v>262</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -2700,10 +2694,10 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
@@ -2711,10 +2705,10 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" t="s">
         <v>265</v>
-      </c>
-      <c r="D33" t="s">
-        <v>266</v>
       </c>
       <c r="E33" t="s">
         <v>245</v>
@@ -2722,32 +2716,32 @@
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" t="s">
         <v>267</v>
       </c>
-      <c r="D34" t="s">
-        <v>268</v>
-      </c>
       <c r="E34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35" t="s">
         <v>269</v>
       </c>
-      <c r="D35" t="s">
-        <v>270</v>
-      </c>
       <c r="E35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" t="s">
         <v>271</v>
-      </c>
-      <c r="D36" t="s">
-        <v>272</v>
       </c>
       <c r="E36" t="s">
         <v>188</v>
@@ -2755,10 +2749,10 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" t="s">
         <v>273</v>
-      </c>
-      <c r="D37" t="s">
-        <v>274</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -2766,10 +2760,10 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D38" t="s">
         <v>275</v>
-      </c>
-      <c r="D38" t="s">
-        <v>276</v>
       </c>
       <c r="E38" t="s">
         <v>194</v>
@@ -2777,43 +2771,43 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" t="s">
         <v>277</v>
       </c>
-      <c r="D39" t="s">
-        <v>278</v>
-      </c>
       <c r="E39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
+        <v>278</v>
+      </c>
+      <c r="D40" t="s">
         <v>279</v>
       </c>
-      <c r="D40" t="s">
-        <v>280</v>
-      </c>
       <c r="E40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" t="s">
         <v>281</v>
       </c>
-      <c r="D41" t="s">
-        <v>282</v>
-      </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
+        <v>282</v>
+      </c>
+      <c r="D42" t="s">
         <v>283</v>
-      </c>
-      <c r="D42" t="s">
-        <v>284</v>
       </c>
       <c r="E42" t="s">
         <v>213</v>
@@ -2832,24 +2826,24 @@
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" t="s">
         <v>285</v>
       </c>
-      <c r="D44" t="s">
-        <v>286</v>
-      </c>
       <c r="E44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" t="s">
         <v>287</v>
       </c>
-      <c r="D45" t="s">
-        <v>288</v>
-      </c>
       <c r="E45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2862,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5D5BB-BF34-2242-A9D4-DED0C01B7A09}">
   <dimension ref="B1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:C124"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3625,7 +3619,7 @@
         <v>227</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -3633,7 +3627,7 @@
         <v>229</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
@@ -3641,7 +3635,7 @@
         <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
@@ -3665,7 +3659,7 @@
         <v>237</v>
       </c>
       <c r="C100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -3673,7 +3667,7 @@
         <v>239</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
@@ -3705,12 +3699,12 @@
         <v>251</v>
       </c>
       <c r="C105" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C106" t="s">
         <v>194</v>
@@ -3718,31 +3712,31 @@
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C107" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
@@ -3750,7 +3744,7 @@
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
@@ -3758,7 +3752,7 @@
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C112" t="s">
         <v>245</v>
@@ -3766,23 +3760,23 @@
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C115" t="s">
         <v>188</v>
@@ -3790,7 +3784,7 @@
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -3798,7 +3792,7 @@
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C117" t="s">
         <v>194</v>
@@ -3806,31 +3800,31 @@
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C121" t="s">
         <v>213</v>
@@ -3846,18 +3840,18 @@
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C123" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C124" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
